--- a/biology/Botanique/Gervais-Maximilien_Durand/Gervais-Maximilien_Durand.xlsx
+++ b/biology/Botanique/Gervais-Maximilien_Durand/Gervais-Maximilien_Durand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gervais-Maximilien Durand est un ébéniste parisien du XIXe siècle né à Paris le 30 juillet 1839[1] et mort à Paris 4e le 26 novembre 1911[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gervais-Maximilien Durand est un ébéniste parisien du XIXe siècle né à Paris le 30 juillet 1839 et mort à Paris 4e le 26 novembre 1911. 
 Il s'installe 12 rue de la Cerisaie puis au 23 rue Beautreillis et enfin dans l'ancien hôtel de Sully au 62 rue Saint-Antoine.
 Artisan exceptionnel, il s'illustre à l'exposition universelle de 1889 pour laquelle il remporte une médaille d'argent. D'après le rapport d'A. Picard : « M. Durand, ébéniste aussi habile que modeste, expose pour la première fois des meubles de premier ordre, dont il est à la fois le dessinateur et l'exécutant, il marche sur la voie tracée par les maîtres tels que Alfred Emmanuel Louis Beurdeley ou Henry Dasson ».
 </t>
